--- a/localidadesnuevasdimexa.xlsx
+++ b/localidadesnuevasdimexa.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,94 +469,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GENTAMICINA VITA 0.3% SOL OFTALMICA X 5ML</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DIMEXA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389970</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20/01/2022</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10455250990</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>BOTICA FARMAVIDA</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>FG</t>
-        </is>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>14.95</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>EDUARDO MONTENEGRO SAHUANAY</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>AREQUIPA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>MEJIA</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>ISLAY</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>GENTAMICINA 0,3% SOL OFT EST x 5ml</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>COMUN</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>AREQUIPAMEJIA</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
